--- a/biology/Zoologie/Battus_eracon/Battus_eracon.xlsx
+++ b/biology/Zoologie/Battus_eracon/Battus_eracon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Battus eracon est une espèce de lépidoptères (papillons) de la famille des Papilionidae, de la sous-famille des Papilioninae et du genre Battus.
 </t>
@@ -511,11 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Battus eracon a été décrit par Frederick DuCane Godman et Osbert Salvin en 1897 sous le nom initial de Papilio eracon[1].
-Noms vernaculaires
-Battus eracon se nomme West-Mexican Swallowtail en anglais[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Battus eracon a été décrit par Frederick DuCane Godman et Osbert Salvin en 1897 sous le nom initial de Papilio eracon.
 </t>
         </is>
       </c>
@@ -541,13 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Battus eracon est un moyennement grand papillon au corps marron à abdomen jaune, au bord externe des ailes antérieures concave et ailes postérieures festonnées. Le dessus est marron orné d'une ligne submarginale de chevrons jaunes.
-Le revers est marron plus clair, avec aux ailes antérieures la même ligne submarginale de chevrons jaunes mais discontinue et aux ailes postérieures une ligne marginale de petits points jaunes surmontée d'une ligne submarginale de chevrons rouges.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Battus eracon se nomme West-Mexican Swallowtail en anglais.
 </t>
         </is>
       </c>
@@ -573,13 +590,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-La plante hôte de sa chenille est une Aristoloche, Aristolochia tentaculata[1].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Battus eracon est un moyennement grand papillon au corps marron à abdomen jaune, au bord externe des ailes antérieures concave et ailes postérieures festonnées. Le dessus est marron orné d'une ligne submarginale de chevrons jaunes.
+Le revers est marron plus clair, avec aux ailes antérieures la même ligne submarginale de chevrons jaunes mais discontinue et aux ailes postérieures une ligne marginale de petits points jaunes surmontée d'une ligne submarginale de chevrons rouges.
 </t>
         </is>
       </c>
@@ -605,15 +624,88 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante hôte de sa chenille est une Aristoloche, Aristolochia tentaculata.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Battus_eracon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Battus_eracon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Battus eracon est présent au Mexique[1].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Battus eracon est présent au Mexique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Battus_eracon</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Battus_eracon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
